--- a/02_hr_agent_with_openapi/HCM_APP/users_data.xlsx
+++ b/02_hr_agent_with_openapi/HCM_APP/users_data.xlsx
@@ -1,35 +1,482 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveennarayan/Pet projects/Hackathon/wxo_asset/agent_ai_workshop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F08D40-9DD1-BD48-B468-5DC2E04CDAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>mewband12</t>
-  </si>
-  <si>
-    <t>Senior Consultant</t>
-  </si>
-  <si>
-    <t>456 Innovation St, Singapore</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
+  <si>
+    <t>Daniel Anderson</t>
+  </si>
+  <si>
+    <t>Chartered legal executive (England and Wales)</t>
+  </si>
+  <si>
+    <t>383 Alisha Pine Suite 655, Lake Brandonland, LA 05900</t>
+  </si>
+  <si>
+    <t>William Frazier</t>
+  </si>
+  <si>
+    <t>Primary school teacher</t>
+  </si>
+  <si>
+    <t>7071 Richmond Stream, North Lisa, PR 29260</t>
+  </si>
+  <si>
+    <t>Danielle Hall</t>
+  </si>
+  <si>
+    <t>Magazine journalist</t>
+  </si>
+  <si>
+    <t>90610 John Turnpike, Josephchester, UT 23589</t>
+  </si>
+  <si>
+    <t>Diane Conrad</t>
+  </si>
+  <si>
+    <t>Cartographer</t>
+  </si>
+  <si>
+    <t>394 Miranda Burgs Apt. 445, Chavezborough, MO 37370</t>
+  </si>
+  <si>
+    <t>Maria Mcdowell</t>
+  </si>
+  <si>
+    <t>Chief of Staff</t>
+  </si>
+  <si>
+    <t>6099 Gina Hill Apt. 258, South Ericaberg, TN 21770</t>
+  </si>
+  <si>
+    <t>Mrs. Karina Williamson</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>374 Seth Trafficway, New Makayla, MS 30134</t>
+  </si>
+  <si>
+    <t>Jacob Graham</t>
+  </si>
+  <si>
+    <t>Designer, furniture</t>
+  </si>
+  <si>
+    <t>10384 Jesse Plaza, East Danny, UT 07253</t>
+  </si>
+  <si>
+    <t>Jessica West</t>
+  </si>
+  <si>
+    <t>Exercise physiologist</t>
+  </si>
+  <si>
+    <t>11471 Christopher River Suite 073, Clarkhaven, VT 91906</t>
+  </si>
+  <si>
+    <t>Rebekah Valdez</t>
+  </si>
+  <si>
+    <t>Nurse, adult</t>
+  </si>
+  <si>
+    <t>63875 Gregory Manors, Port Jennifer, OH 59157</t>
+  </si>
+  <si>
+    <t>Yvonne Clark</t>
+  </si>
+  <si>
+    <t>Restaurant manager</t>
+  </si>
+  <si>
+    <t>8204 Jacobson Hills, New Madison, TN 14193</t>
+  </si>
+  <si>
+    <t>Victoria Baker</t>
+  </si>
+  <si>
+    <t>Designer, jewellery</t>
+  </si>
+  <si>
+    <t>43546 Michael Trace Suite 285, Kennedyfurt, NC 22812</t>
+  </si>
+  <si>
+    <t>James Harding</t>
+  </si>
+  <si>
+    <t>Planning and development surveyor</t>
+  </si>
+  <si>
+    <t>0017 Leblanc Turnpike, East Johnny, IL 35091</t>
+  </si>
+  <si>
+    <t>Thomas Anderson</t>
+  </si>
+  <si>
+    <t>Pension scheme manager</t>
+  </si>
+  <si>
+    <t>8912 Morse Greens, Paynestad, ME 14640</t>
+  </si>
+  <si>
+    <t>Jennifer Rivers</t>
+  </si>
+  <si>
+    <t>75901 Clay Parks Apt. 314, Rogersfort, WY 11746</t>
+  </si>
+  <si>
+    <t>Sarah Boyle</t>
+  </si>
+  <si>
+    <t>Agricultural engineer</t>
+  </si>
+  <si>
+    <t>231 Sophia Drives Suite 667, Torresside, ND 87160</t>
+  </si>
+  <si>
+    <t>Mary Pruitt</t>
+  </si>
+  <si>
+    <t>Audiological scientist</t>
+  </si>
+  <si>
+    <t>4901 Williams Views Apt. 146, Fitzgeraldfurt, IL 06883</t>
+  </si>
+  <si>
+    <t>Laura Escobar</t>
+  </si>
+  <si>
+    <t>Sports therapist</t>
+  </si>
+  <si>
+    <t>6231 Veronica Bridge, Seanshire, MP 47693</t>
+  </si>
+  <si>
+    <t>Becky Simmons</t>
+  </si>
+  <si>
+    <t>Armed forces technical officer</t>
+  </si>
+  <si>
+    <t>0652 Cook Road Suite 722, Rushbury, WV 08848</t>
+  </si>
+  <si>
+    <t>Tracey Brown</t>
+  </si>
+  <si>
+    <t>Clinical molecular geneticist</t>
+  </si>
+  <si>
+    <t>530 Hansen Highway Apt. 812, East Kristen, ND 29791</t>
+  </si>
+  <si>
+    <t>Sean Lang</t>
+  </si>
+  <si>
+    <t>Dietitian</t>
+  </si>
+  <si>
+    <t>0943 Kaiser Neck, North Maxwell, PA 67942</t>
+  </si>
+  <si>
+    <t>Michael Miller</t>
+  </si>
+  <si>
+    <t>Materials engineer</t>
+  </si>
+  <si>
+    <t>8744 Sandra Corners, Waltersfurt, CA 07789</t>
+  </si>
+  <si>
+    <t>Victor Vincent</t>
+  </si>
+  <si>
+    <t>Surveyor, planning and development</t>
+  </si>
+  <si>
+    <t>973 Shaw Village Suite 608, Nicholasside, HI 37194</t>
+  </si>
+  <si>
+    <t>Anthony Underwood</t>
+  </si>
+  <si>
+    <t>Garment/textile technologist</t>
+  </si>
+  <si>
+    <t>9773 Fisher Path, Bowmantown, ME 52339</t>
+  </si>
+  <si>
+    <t>Kathleen Fowler</t>
+  </si>
+  <si>
+    <t>8387 Cheryl Island Suite 769, Debrafurt, NJ 86139</t>
+  </si>
+  <si>
+    <t>John Garcia</t>
+  </si>
+  <si>
+    <t>Clinical cytogeneticist</t>
+  </si>
+  <si>
+    <t>USCGC Barrett, FPO AA 25746</t>
+  </si>
+  <si>
+    <t>Tracy Melton</t>
+  </si>
+  <si>
+    <t>Engineer, mining</t>
+  </si>
+  <si>
+    <t>225 Larry Crescent, Port Debbie, NH 90649</t>
+  </si>
+  <si>
+    <t>Allison Stevens</t>
+  </si>
+  <si>
+    <t>Clinical biochemist</t>
+  </si>
+  <si>
+    <t>0214 Stafford Cape, Montesfort, PR 07933</t>
+  </si>
+  <si>
+    <t>Robert Martin</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>2198 Joseph Via Suite 708, Simpsonland, KY 14140</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Theatre manager</t>
+  </si>
+  <si>
+    <t>098 Kara Course Suite 316, Carolynport, WA 94969</t>
+  </si>
+  <si>
+    <t>Curtis Hunter</t>
+  </si>
+  <si>
+    <t>Development worker, international aid</t>
+  </si>
+  <si>
+    <t>9020 David Squares Apt. 200, East Alexander, AR 85219</t>
+  </si>
+  <si>
+    <t>Roy Andrews</t>
+  </si>
+  <si>
+    <t>Pharmacologist</t>
+  </si>
+  <si>
+    <t>PSC 9483, Box 5134, APO AP 44198</t>
+  </si>
+  <si>
+    <t>Frank Melendez</t>
+  </si>
+  <si>
+    <t>Equality and diversity officer</t>
+  </si>
+  <si>
+    <t>17544 Shannon Course, East Bruceshire, WY 39838</t>
+  </si>
+  <si>
+    <t>James Davies</t>
+  </si>
+  <si>
+    <t>Aeronautical engineer</t>
+  </si>
+  <si>
+    <t>0363 Lawrence Square Suite 305, Ramirezstad, MN 40558</t>
+  </si>
+  <si>
+    <t>Jessica Cole</t>
+  </si>
+  <si>
+    <t>Financial manager</t>
+  </si>
+  <si>
+    <t>PSC 3473, Box 3456, APO AE 80628</t>
+  </si>
+  <si>
+    <t>Gerald Pollard</t>
+  </si>
+  <si>
+    <t>Illustrator</t>
+  </si>
+  <si>
+    <t>6868 Jennifer Springs, Sanchezton, VT 28166</t>
+  </si>
+  <si>
+    <t>Tony Tanner</t>
+  </si>
+  <si>
+    <t>6832 Adams Mills Apt. 078, Lake Tinabury, NJ 76213</t>
+  </si>
+  <si>
+    <t>Erin Anderson</t>
+  </si>
+  <si>
+    <t>PSC 6508, Box 6671, APO AE 17304</t>
+  </si>
+  <si>
+    <t>Blake Hernandez</t>
+  </si>
+  <si>
+    <t>9230 Bryan Trail Apt. 168, Evelynville, HI 78623</t>
+  </si>
+  <si>
+    <t>Bethany Nichols</t>
+  </si>
+  <si>
+    <t>Office manager</t>
+  </si>
+  <si>
+    <t>9486 Lester Spur, Huberbury, FL 91495</t>
+  </si>
+  <si>
+    <t>Renee Doyle</t>
+  </si>
+  <si>
+    <t>Conservation officer, historic buildings</t>
+  </si>
+  <si>
+    <t>13847 Dillon Islands Suite 363, Lake Matthewside, MO 05101</t>
+  </si>
+  <si>
+    <t>Michael Dominguez</t>
+  </si>
+  <si>
+    <t>Equities trader</t>
+  </si>
+  <si>
+    <t>89926 Giles Turnpike Apt. 174, South Cassandrastad, NJ 41871</t>
+  </si>
+  <si>
+    <t>Veronica Harrell</t>
+  </si>
+  <si>
+    <t>Hydrographic surveyor</t>
+  </si>
+  <si>
+    <t>883 Elizabeth Manors Suite 950, Diazfurt, NV 95910</t>
+  </si>
+  <si>
+    <t>Laura Richard</t>
+  </si>
+  <si>
+    <t>Diplomatic Services operational officer</t>
+  </si>
+  <si>
+    <t>7968 Rios Rest Suite 396, Monicaton, VT 55885</t>
+  </si>
+  <si>
+    <t>Deborah Bryant</t>
+  </si>
+  <si>
+    <t>Ergonomist</t>
+  </si>
+  <si>
+    <t>76734 Corey Park, Davidside, RI 06348</t>
+  </si>
+  <si>
+    <t>Kevin Kelley</t>
+  </si>
+  <si>
+    <t>Youth worker</t>
+  </si>
+  <si>
+    <t>795 Donald Ways, Kimshire, FM 78898</t>
+  </si>
+  <si>
+    <t>Danielle Davis</t>
+  </si>
+  <si>
+    <t>Higher education careers adviser</t>
+  </si>
+  <si>
+    <t>188 Amanda Club, Thomasstad, CT 28765</t>
+  </si>
+  <si>
+    <t>Kenneth Perkins</t>
+  </si>
+  <si>
+    <t>Senior tax professional/tax inspector</t>
+  </si>
+  <si>
+    <t>5011 Jones Neck, Susanberg, CA 62141</t>
+  </si>
+  <si>
+    <t>Beth Carter</t>
+  </si>
+  <si>
+    <t>Geologist, engineering</t>
+  </si>
+  <si>
+    <t>520 Frazier Extension, Cainbury, OR 48986</t>
+  </si>
+  <si>
+    <t>Gregory Hughes</t>
+  </si>
+  <si>
+    <t>Research scientist (medical)</t>
+  </si>
+  <si>
+    <t>81871 Fleming Rapids Apt. 413, South Jessica, IL 92193</t>
+  </si>
+  <si>
+    <t>Tami Dominguez</t>
+  </si>
+  <si>
+    <t>Merchandiser, retail</t>
+  </si>
+  <si>
+    <t>546 Kellie Orchard Suite 541, Port Kevinhaven, MI 61050</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TimeOffBalance</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RequestedTimeOff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,12 +485,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,27 +499,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -83,15 +513,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,42 +815,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>52</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>28.61</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -423,10 +861,990 @@
         <v>2</v>
       </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>13.34</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>453</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10.06</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>454</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>43.88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>455</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>10.71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>41.09</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>457</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>15.04</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>458</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>14.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1.76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>7.4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>461</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>44.28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>462</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>25.06</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>463</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>44.13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>464</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>19.88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>465</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>466</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>48.32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>467</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>468</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>2.78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>43.95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>470</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>43.71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>471</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>26.52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>472</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>8.99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>473</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>46.48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>474</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25">
+        <v>1.31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>475</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>11.89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>476</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>15.99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>477</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>16.95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29">
+        <v>5.26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>479</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>16.97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>480</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>481</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>44.52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>482</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>40.33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>484</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35">
+        <v>27.88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>485</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>14.86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>486</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>17.2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>487</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>20.22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>488</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39">
+        <v>49.58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>489</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40">
+        <v>33.85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>490</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>42.93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>491</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42">
+        <v>44.95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>492</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>26.64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>493</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44">
+        <v>47.82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>494</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>25.75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>495</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>496</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <v>48.1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>497</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>498</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49">
+        <v>41.46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>499</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50">
+        <v>11.37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51">
+        <v>30.05</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>